--- a/medicine/Psychotrope/Confrérie_des_Maîtres_Pipiers_de_Saint-Claude/Confrérie_des_Maîtres_Pipiers_de_Saint-Claude.xlsx
+++ b/medicine/Psychotrope/Confrérie_des_Maîtres_Pipiers_de_Saint-Claude/Confrérie_des_Maîtres_Pipiers_de_Saint-Claude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_des_Ma%C3%AEtres_Pipiers_de_Saint-Claude</t>
+          <t>Confrérie_des_Maîtres_Pipiers_de_Saint-Claude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Confrérie des maitres-pipiers est une confrérie - association loi de 1901 « Ambassadrice de l'importante industrie de la pipe de Saint-Claude dans le Haut-Jura ». Elle est créée en 1966 à l'instigation d'Edgar Faure alors élu « Premier Fumeur de pipe de l'année ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_des_Ma%C3%AEtres_Pipiers_de_Saint-Claude</t>
+          <t>Confrérie_des_Maîtres_Pipiers_de_Saint-Claude</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux réunions sont tenues en chapitre[Quoi ?] chaque année. 
-L'une d'entre elles élit le « Premier Fumeur de pipe de France » choisi par ses pairs pour sa passion pour la pipe. L’élu reçoit à titre de distinction une pipe à son effigie fabriquée par le maitre-pipier Paul Lanier (meilleur ouvrier de France 1991 pour la sculpture sur pipes)[1].
-Parmi plus de 1 000 intronisés figurent : Jean Richard, Jacques Faizant[2], Bernard Blier, Michel Drucker, Jean Poiret, Nino Ferrer, Jacques Audiard, Dominique Strauss-Kahn etc[3].
-La confrérie était présidée jusqu’en avril 2018 par Michel Waille[4].
+L'une d'entre elles élit le « Premier Fumeur de pipe de France » choisi par ses pairs pour sa passion pour la pipe. L’élu reçoit à titre de distinction une pipe à son effigie fabriquée par le maitre-pipier Paul Lanier (meilleur ouvrier de France 1991 pour la sculpture sur pipes).
+Parmi plus de 1 000 intronisés figurent : Jean Richard, Jacques Faizant, Bernard Blier, Michel Drucker, Jean Poiret, Nino Ferrer, Jacques Audiard, Dominique Strauss-Kahn etc.
+La confrérie était présidée jusqu’en avril 2018 par Michel Waille.
 </t>
         </is>
       </c>
